--- a/data/CS5/case30/case30_base.xlsx
+++ b/data/CS5/case30/case30_base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS3\case30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS5\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB8ADD9-35D5-4094-AEDC-DF2073A9EC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D4C298-3107-4983-963E-6C1E6AD771AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="34" r:id="rId1"/>
@@ -415,16 +415,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BA2E0A-46FB-4F4E-929C-1515BC129DD6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -432,7 +432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -440,7 +440,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -461,9 +461,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -617,7 +617,7 @@
         <v>0.28061949854957141</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -694,7 +694,7 @@
         <v>-0.42122634657099428</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -771,7 +771,7 @@
         <v>-0.76398900925398083</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -848,7 +848,7 @@
         <v>0.59808028175264938</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -925,7 +925,7 @@
         <v>-0.85516594435808868</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>0.9779994260675885</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>-0.6390141466426541</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>-0.31778396827548755</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>-0.98273830554209973</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>-0.10991146620600305</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>-0.55179730616597533</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>-0.96809189534141671</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>-0.1306278942124324</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>-0.32332123097925397</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>0.4426729442254268</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>-0.52085539768262668</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>26</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>0.83986864527408778</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>29</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>0.61934938741022394</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>6.4604716702369877E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2106,7 +2106,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2132,7 +2132,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2158,7 +2158,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2184,7 +2184,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2210,7 +2210,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2236,7 +2236,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2262,7 +2262,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2288,7 +2288,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2314,7 +2314,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2340,7 +2340,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2366,7 +2366,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2392,7 +2392,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2418,7 +2418,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2444,7 +2444,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2470,7 +2470,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2496,7 +2496,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2522,7 +2522,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2548,7 +2548,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2574,7 +2574,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2600,7 +2600,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2626,7 +2626,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2661,16 +2661,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A692A72-59FD-4423-ADC4-03B36872E462}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>9.0104000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>-19.595199999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2992,13 +2992,13 @@
       <selection activeCell="C3" sqref="C3:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3678,19 +3678,19 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3733,9 +3733,9 @@
       <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>3.4721290250071251</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>1.7120769165644356</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>4.7040228229883372</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>17.01514369575408</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>-2.3784076037384558</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>7.3990706558747554</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>3.9193321281753715</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>5.6876201469116703</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>2.4200252920853957</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>5.1422156584908292</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>2.3326469902054714</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>4.0854592082896621</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>1.891374271298556</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>10.739583093068717</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>2.5002660325515853</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>5.9560995484588082</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>26</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>2.1527559278612802</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>29</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>-0.19483870967741934</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>7.5759285723891523</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -5858,7 +5858,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -5884,7 +5884,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -5910,7 +5910,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -5936,7 +5936,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -5962,7 +5962,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5988,7 +5988,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -6014,7 +6014,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -6040,7 +6040,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -6066,7 +6066,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -6092,7 +6092,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -6118,7 +6118,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -6157,9 +6157,9 @@
       <selection activeCell="B2" sqref="B2:Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>2.67796251009548</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>-0.86507049089196753</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>1.1888817846207462</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>5.4352689662913605</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>-0.81195500038019763</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>1.9617306627066688</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>6.2764758876546001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>-1.0304407443151309</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>-0.70522448021869844</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>-0.63594336197506962</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>-0.6419085391387267</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>-3.2541078301035999</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>-0.13155514234051496</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>-11.049631443319495</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>0.44153813602649417</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>-5.2478468667833873</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>26</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>1.7281081719599969</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>29</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>0.53608862377503197</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>-1.0041847568876967</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -8282,7 +8282,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -8308,7 +8308,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -8334,7 +8334,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -8360,7 +8360,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -8386,7 +8386,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -8412,7 +8412,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -8438,7 +8438,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -8464,7 +8464,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -8490,7 +8490,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -8516,7 +8516,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -8542,7 +8542,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -8581,9 +8581,9 @@
       <selection activeCell="B2" sqref="B2:Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>18.781053617606535</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>1.9676446142528987</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>5.7424758897401533</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>19.179923574685155</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>-1.8346527716235175</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>6.916149549038618</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>4.0700749263845619</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>5.6355179910990767</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>2.5562039006779038</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>6.0990574220782969</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>2.5349810310319194</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>3.9575955265610441</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>1.7081937607668136</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>12.575518379341545</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>2.6178384354747983</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>6.4716585381994109</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>26</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>2.5903967538322812</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>29</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>0.1683257918552036</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>8.745617694662025</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -10706,7 +10706,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -10732,7 +10732,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -10758,7 +10758,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -10784,7 +10784,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -10810,7 +10810,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -10836,7 +10836,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -10862,7 +10862,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -10888,7 +10888,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -10914,7 +10914,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -10940,7 +10940,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -10966,7 +10966,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -11005,9 +11005,9 @@
       <selection activeCell="B2" sqref="B2:Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>3.5638676315795568</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>-0.50547161588519307</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>-1.2223824148063693</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>6.5190750711038783</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>-25.654978330742662</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>7.3349956955069135</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>-1.0224226346282466</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>-0.79445992068871885</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
@@ -12094,7 +12094,7 @@
         <v>-1.7689289499757797</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>-0.63748650399481765</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>-0.4966175755493778</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>-3.2915124441608166</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>-9.143952594870268E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>-3.6211977869676444</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>0.70827671076068288</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>-3.4897311644735987</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>26</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>1.9316978841304018</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>29</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>0.55741444866920153</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30</v>
       </c>
@@ -13104,7 +13104,7 @@
         <v>0.12274896173450275</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -13130,7 +13130,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -13156,7 +13156,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -13182,7 +13182,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -13208,7 +13208,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -13234,7 +13234,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -13260,7 +13260,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -13286,7 +13286,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -13312,7 +13312,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -13338,7 +13338,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -13364,7 +13364,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -13390,7 +13390,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -13429,9 +13429,9 @@
       <selection activeCell="B2" sqref="B2:Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>0.1600059458528629</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>0.71336538190184817</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>0.61895037144583387</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -13816,7 +13816,7 @@
         <v>0.74627823226991585</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>-7.9280253457948535E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -13970,7 +13970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>0.6606313085602461</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -14124,7 +14124,7 @@
         <v>0.63215034325409214</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>0.69361221303800868</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>0.69143579773868447</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
@@ -14355,7 +14355,7 @@
         <v>0.57135729538786995</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -14432,7 +14432,7 @@
         <v>0.72895218443920984</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>0.4300483377147013</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -14586,7 +14586,7 @@
         <v>0.85971557786297992</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>0.61369046246106951</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>0.78133313517237035</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -14817,7 +14817,7 @@
         <v>0.68460914350101254</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>26</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>0.61507312224608002</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>29</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>-8.1182795698924726E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>0.71471024267822192</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -15074,7 +15074,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -15100,7 +15100,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -15126,7 +15126,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -15152,7 +15152,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -15178,7 +15178,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -15204,7 +15204,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -15230,7 +15230,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -15256,7 +15256,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -15282,7 +15282,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -15308,7 +15308,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -15334,7 +15334,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -15360,7 +15360,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -15386,7 +15386,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -15412,7 +15412,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -15438,7 +15438,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -15464,7 +15464,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -15490,7 +15490,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -15516,7 +15516,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -15542,7 +15542,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -15568,7 +15568,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -15594,7 +15594,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -15633,9 +15633,9 @@
       <selection activeCell="B2" sqref="B2:Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>0.21086318977129764</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>-0.72089207574330627</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -15943,7 +15943,7 @@
         <v>0.74305111538796631</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>0.49864852901755596</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -16097,7 +16097,7 @@
         <v>-2.7065166679339923E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>0.98086533135333442</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>0.83686345168728005</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -16328,7 +16328,7 @@
         <v>-0.6440254651969568</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>-0.28208979208747936</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
@@ -16482,7 +16482,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>-0.10964540723708098</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>-0.71323171015414077</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>-0.95709053826576473</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -16790,7 +16790,7 @@
         <v>-0.18793591762930709</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>-0.98657423601066918</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -16944,7 +16944,7 @@
         <v>0.27596133501655884</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>-0.7832607263855802</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>26</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>0.75135137911304217</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>29</v>
       </c>
@@ -17175,7 +17175,7 @@
         <v>0.59565402641670218</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30</v>
       </c>
@@ -17252,7 +17252,7 @@
         <v>-0.52851829309878773</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -17278,7 +17278,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -17304,7 +17304,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -17330,7 +17330,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -17356,7 +17356,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -17382,7 +17382,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -17408,7 +17408,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -17434,7 +17434,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -17460,7 +17460,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -17486,7 +17486,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -17512,7 +17512,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -17538,7 +17538,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -17564,7 +17564,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -17590,7 +17590,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -17616,7 +17616,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -17642,7 +17642,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -17668,7 +17668,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -17694,7 +17694,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -17720,7 +17720,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -17746,7 +17746,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -17772,7 +17772,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -17798,7 +17798,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -17837,9 +17837,9 @@
       <selection activeCell="B2" sqref="B2:Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -17993,7 +17993,7 @@
         <v>0.86548634182518602</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -18070,7 +18070,7 @@
         <v>0.81985192260537454</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -18147,7 +18147,7 @@
         <v>0.75558893286054651</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -18224,7 +18224,7 @@
         <v>0.84122471818794531</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>-6.115509238745058E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -18455,7 +18455,7 @@
         <v>0.61751335259273377</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -18532,7 +18532,7 @@
         <v>0.65646369780396163</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>0.68725829159744845</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
@@ -18686,7 +18686,7 @@
         <v>0.73034397162225828</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>0.67767304689758856</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>0.79218157219747476</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19</v>
       </c>
@@ -18917,7 +18917,7 @@
         <v>0.41658900279589939</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -18994,7 +18994,7 @@
         <v>0.77645170943946062</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -19071,7 +19071,7 @@
         <v>0.71860105024808829</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -19148,7 +19148,7 @@
         <v>0.81807451108587437</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24</v>
       </c>
@@ -19225,7 +19225,7 @@
         <v>0.74386879749418522</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>26</v>
       </c>
@@ -19302,7 +19302,7 @@
         <v>0.74011335823779467</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>29</v>
       </c>
@@ -19379,7 +19379,7 @@
         <v>7.0135746606334842E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>30</v>
       </c>
@@ -19456,7 +19456,7 @@
         <v>0.82505827308132318</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -19482,7 +19482,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -19508,7 +19508,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -19534,7 +19534,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -19560,7 +19560,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -19586,7 +19586,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -19612,7 +19612,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -19638,7 +19638,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -19664,7 +19664,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -19690,7 +19690,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -19716,7 +19716,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -19742,7 +19742,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -19768,7 +19768,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -19794,7 +19794,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -19820,7 +19820,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -19846,7 +19846,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -19872,7 +19872,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -19898,7 +19898,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -19924,7 +19924,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -19950,7 +19950,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -19976,7 +19976,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -20002,7 +20002,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
